--- a/data/NewData/Dataset_3.0.xlsx
+++ b/data/NewData/Dataset_3.0.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3476" uniqueCount="1899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3409" uniqueCount="1896">
   <si>
     <t xml:space="preserve">DOMANDA</t>
   </si>
@@ -36,7 +36,7 @@
     <t xml:space="preserve">STRALCIO</t>
   </si>
   <si>
-    <t xml:space="preserve">REPERTORIO</t>
+    <t xml:space="preserve">DENOMINAZIONE</t>
   </si>
   <si>
     <t xml:space="preserve">Il testo come descrive le caratteristiche cliniche del disturbo da deficit dell’attenzione/iperattività?</t>
@@ -6304,9 +6304,6 @@
 Rapoport and Castellanos 1996). L’efficacia clinica degli psicostimolanti permane costante anche nel corso di terapie prolungate per anni</t>
   </si>
   <si>
-    <t xml:space="preserve">ORIENTAMENTO</t>
-  </si>
-  <si>
     <t xml:space="preserve">Come l’utente della comunità online narra la patologia del covid-19 sul suo profilo? </t>
   </si>
   <si>
@@ -6334,9 +6331,6 @@
     <t xml:space="preserve"> mi aiuterò con le cure e con la pratica della normalità, che tanto può.  </t>
   </si>
   <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
     <t xml:space="preserve">Il rischio di essere arrivato a fine corsa è stato reale, e mi ero già disposto all’eventualità. </t>
   </si>
   <si>
@@ -6344,9 +6338,6 @@
   </si>
   <si>
     <t xml:space="preserve">Il giorno del mio ricovero 23 marzo, e il successivo 24, hanno segnato le cronache cittadine, e non solo, per l’assalto ai Pronto Soccorso. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G</t>
   </si>
   <si>
     <t xml:space="preserve">Il numero di picco raggiunto: 192 ricoverati, per una struttura che ne potrà accogliere un terzo. </t>
@@ -8582,11 +8573,11 @@
   </sheetPr>
   <dimension ref="A1:F1083"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="85.63"/>
@@ -20014,22 +20005,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G425"/>
+  <dimension ref="A1:F425"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="85.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="55.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -20042,5016 +20033,4457 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="378.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>1375</v>
       </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="55" t="s">
         <v>1376</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="C2" s="3" t="s">
         <v>1377</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="56" t="s">
         <v>1378</v>
       </c>
-      <c r="D2" s="56" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E2" s="56"/>
-    </row>
-    <row r="3" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="56"/>
       <c r="B3" s="56"/>
       <c r="C3" s="57" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="E3" s="56"/>
-    </row>
-    <row r="4" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="56"/>
       <c r="B4" s="56"/>
       <c r="C4" s="57" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>1381</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>1382</v>
-      </c>
-      <c r="E4" s="56"/>
-    </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="56"/>
       <c r="B5" s="56"/>
       <c r="C5" s="57" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="56"/>
-    </row>
-    <row r="6" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="56"/>
       <c r="B6" s="56"/>
       <c r="C6" s="57" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="E6" s="56" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="56"/>
       <c r="B7" s="56"/>
       <c r="C7" s="3" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="56"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="56"/>
       <c r="B8" s="56"/>
       <c r="C8" s="3" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="D8" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="E8" s="56"/>
-    </row>
-    <row r="9" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="9" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="56"/>
       <c r="B9" s="56"/>
       <c r="C9" s="3" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="D9" s="56" t="s">
         <v>263</v>
       </c>
-      <c r="E9" s="56" t="s">
-        <v>1389</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="10" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="56"/>
       <c r="B10" s="56"/>
       <c r="C10" s="3" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="D10" s="56" t="s">
         <v>270</v>
       </c>
-      <c r="E10" s="56" t="s">
-        <v>1389</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="11" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="56"/>
       <c r="B11" s="56"/>
       <c r="C11" s="3" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="D11" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="E11" s="56"/>
-    </row>
-    <row r="12" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="12" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="56"/>
       <c r="B12" s="56"/>
       <c r="C12" s="3" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="D12" s="56" t="s">
         <v>263</v>
       </c>
-      <c r="E12" s="56" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="13" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="56"/>
       <c r="B13" s="56"/>
       <c r="C13" s="3" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="D13" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="E13" s="56"/>
-    </row>
-    <row r="14" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="14" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="56"/>
       <c r="B14" s="56"/>
       <c r="C14" s="3" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="D14" s="56" t="s">
         <v>239</v>
       </c>
-      <c r="E14" s="56"/>
-    </row>
-    <row r="15" customFormat="false" ht="130.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="15" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="56"/>
       <c r="B15" s="56"/>
       <c r="C15" s="3" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="D15" s="56" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E15" s="56"/>
-    </row>
-    <row r="16" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="56"/>
       <c r="B16" s="56"/>
       <c r="C16" s="3" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="D16" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="E16" s="56"/>
-    </row>
-    <row r="17" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="17" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="56"/>
       <c r="B17" s="56"/>
       <c r="C17" s="3" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="D17" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="56"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="56"/>
       <c r="B18" s="56"/>
       <c r="C18" s="3" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="D18" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="E18" s="56"/>
-    </row>
-    <row r="19" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="19" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="56"/>
       <c r="B19" s="56"/>
       <c r="C19" s="3" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="D19" s="56" t="s">
         <v>239</v>
       </c>
-      <c r="E19" s="56"/>
-    </row>
-    <row r="20" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="20" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="56"/>
       <c r="B20" s="56"/>
       <c r="C20" s="3" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="D20" s="56" t="s">
         <v>551</v>
       </c>
-      <c r="E20" s="56" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="56"/>
       <c r="B21" s="56"/>
       <c r="C21" s="3" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="D21" s="56" t="s">
         <v>427</v>
       </c>
-      <c r="E21" s="56" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="22" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="56"/>
       <c r="B22" s="56"/>
       <c r="C22" s="3" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="56"/>
-    </row>
-    <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="56"/>
       <c r="B23" s="56"/>
       <c r="C23" s="56" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="D23" s="56" t="s">
-        <v>1404</v>
-      </c>
-      <c r="E23" s="56" t="s">
-        <v>1389</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="56"/>
       <c r="B24" s="56"/>
       <c r="C24" s="3" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="D24" s="56" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E24" s="56"/>
-    </row>
-    <row r="25" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="56"/>
       <c r="B25" s="56"/>
       <c r="C25" s="3" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="D25" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="E25" s="56"/>
-    </row>
-    <row r="26" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="26" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="56"/>
       <c r="B26" s="56"/>
       <c r="C26" s="3" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="D26" s="56" t="s">
-        <v>1408</v>
-      </c>
-      <c r="E26" s="56"/>
-    </row>
-    <row r="27" customFormat="false" ht="232" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="172.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="56"/>
       <c r="B27" s="58" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="56"/>
-    </row>
-    <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="56"/>
       <c r="B28" s="59"/>
       <c r="C28" s="3" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="D28" s="56" t="s">
         <v>1173</v>
       </c>
-      <c r="E28" s="56"/>
-    </row>
-    <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="56"/>
       <c r="B29" s="59"/>
       <c r="C29" s="3" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="D29" s="56" t="s">
         <v>390</v>
       </c>
-      <c r="E29" s="56"/>
-    </row>
-    <row r="30" customFormat="false" ht="101.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="30" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="56"/>
       <c r="B30" s="59"/>
       <c r="C30" s="3" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="D30" s="56" t="s">
         <v>239</v>
       </c>
-      <c r="E30" s="56"/>
-    </row>
-    <row r="31" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="31" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="56"/>
       <c r="B31" s="59"/>
       <c r="C31" s="3" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="D31" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="E31" s="56"/>
-    </row>
-    <row r="32" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="32" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="56"/>
       <c r="B32" s="59"/>
       <c r="C32" s="3" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="D32" s="56" t="s">
-        <v>1408</v>
-      </c>
-      <c r="E32" s="56"/>
-    </row>
-    <row r="33" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="56"/>
       <c r="B33" s="59"/>
       <c r="C33" s="3" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="D33" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="56"/>
-    </row>
-    <row r="34" customFormat="false" ht="203" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="34" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="56"/>
       <c r="B34" s="58" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="56"/>
-    </row>
-    <row r="35" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="35" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="56"/>
       <c r="B35" s="59"/>
       <c r="C35" s="3" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="D35" s="56" t="s">
         <v>263</v>
       </c>
-      <c r="E35" s="56" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="36" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="56"/>
       <c r="B36" s="60" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E36" s="56"/>
-    </row>
-    <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="56"/>
       <c r="B37" s="59"/>
       <c r="C37" s="3" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E37" s="56"/>
-    </row>
-    <row r="38" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="38" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="56"/>
       <c r="B38" s="59"/>
       <c r="C38" s="3" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="D38" s="56" t="s">
         <v>263</v>
       </c>
-      <c r="E38" s="56" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="39" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="56"/>
       <c r="B39" s="58" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="C39" s="56" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="D39" s="56" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E39" s="56"/>
-    </row>
-    <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="56"/>
       <c r="B40" s="59"/>
       <c r="C40" s="3" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="D40" s="56" t="s">
         <v>427</v>
       </c>
-      <c r="E40" s="56" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="56"/>
       <c r="B41" s="59"/>
       <c r="C41" s="3" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="D41" s="56" t="s">
         <v>1173</v>
       </c>
-      <c r="E41" s="56"/>
-    </row>
-    <row r="42" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="42" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="56"/>
       <c r="B42" s="59"/>
       <c r="C42" s="3" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="D42" s="56" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E42" s="56"/>
-    </row>
-    <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="56"/>
       <c r="B43" s="59"/>
       <c r="C43" s="56" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="D43" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="E43" s="56"/>
-    </row>
-    <row r="44" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="44" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="56"/>
       <c r="B44" s="58" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="56"/>
-    </row>
-    <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="56"/>
       <c r="B45" s="59"/>
       <c r="C45" s="56" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="D45" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="E45" s="56"/>
-    </row>
-    <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="56"/>
       <c r="B46" s="59"/>
       <c r="C46" s="56" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="D46" s="56" t="s">
-        <v>1408</v>
-      </c>
-      <c r="E46" s="56"/>
-    </row>
-    <row r="47" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="56"/>
       <c r="B47" s="59"/>
       <c r="C47" s="3" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="D47" s="56" t="s">
-        <v>1435</v>
-      </c>
-      <c r="E47" s="56"/>
-    </row>
-    <row r="48" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="56"/>
       <c r="B48" s="58" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="E48" s="56"/>
-    </row>
-    <row r="49" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="49" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="56"/>
       <c r="B49" s="59"/>
       <c r="C49" s="3" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="D49" s="56" t="s">
         <v>390</v>
       </c>
-      <c r="E49" s="56"/>
-    </row>
-    <row r="50" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="50" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="56"/>
       <c r="B50" s="59"/>
       <c r="C50" s="3" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="D50" s="56" t="s">
         <v>270</v>
       </c>
-      <c r="E50" s="56" t="s">
-        <v>1389</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="174" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="51" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="56"/>
       <c r="B51" s="58" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="D51" s="56" t="s">
         <v>239</v>
       </c>
-      <c r="E51" s="56"/>
-    </row>
-    <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="56"/>
       <c r="B52" s="59"/>
       <c r="C52" s="3" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="D52" s="56" t="s">
         <v>551</v>
       </c>
-      <c r="E52" s="56" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="53" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="56"/>
       <c r="B53" s="59"/>
       <c r="C53" s="3" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="D53" s="56" t="s">
         <v>239</v>
       </c>
-      <c r="E53" s="56"/>
-    </row>
-    <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="56"/>
       <c r="B54" s="59"/>
       <c r="C54" s="3" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="D54" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="E54" s="56"/>
-    </row>
-    <row r="55" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="55" customFormat="false" ht="333.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="56"/>
       <c r="B55" s="58" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="E55" s="56"/>
-    </row>
-    <row r="56" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="56" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="56"/>
       <c r="B56" s="59"/>
       <c r="C56" s="3" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="56"/>
-    </row>
-    <row r="57" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="57" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="56"/>
       <c r="B57" s="59"/>
       <c r="C57" s="3" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="D57" s="56" t="s">
         <v>239</v>
       </c>
-      <c r="E57" s="56"/>
-    </row>
-    <row r="58" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="58" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="56"/>
       <c r="B58" s="59"/>
       <c r="C58" s="3" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="D58" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="E58" s="56"/>
-    </row>
-    <row r="59" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="59" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="56"/>
       <c r="B59" s="59"/>
       <c r="C59" s="3" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="D59" s="56" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E59" s="56"/>
-    </row>
-    <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="56"/>
       <c r="B60" s="59"/>
       <c r="C60" s="56" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E60" s="56"/>
-    </row>
-    <row r="61" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="61" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="56"/>
       <c r="B61" s="59"/>
       <c r="C61" s="3" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="D61" s="56" t="s">
-        <v>1408</v>
-      </c>
-      <c r="E61" s="56"/>
-    </row>
-    <row r="62" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="56"/>
       <c r="B62" s="59"/>
       <c r="C62" s="3" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="D62" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="E62" s="56"/>
-    </row>
-    <row r="63" customFormat="false" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="63" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="56"/>
       <c r="B63" s="59"/>
       <c r="C63" s="3" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
       <c r="D63" s="56" t="s">
-        <v>1382</v>
-      </c>
-      <c r="E63" s="56"/>
-    </row>
-    <row r="64" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="56"/>
       <c r="B64" s="59"/>
       <c r="C64" s="3" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="D64" s="56" t="s">
         <v>263</v>
       </c>
-      <c r="E64" s="56" t="s">
-        <v>1389</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="56"/>
       <c r="B65" s="59"/>
       <c r="C65" s="3" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="D65" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="E65" s="56" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="66" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="56"/>
       <c r="B66" s="59"/>
       <c r="C66" s="3" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="D66" s="56" t="s">
         <v>263</v>
       </c>
-      <c r="E66" s="56" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="67" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="56"/>
       <c r="B67" s="59"/>
       <c r="C67" s="3" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="D67" s="56" t="s">
-        <v>1408</v>
-      </c>
-      <c r="E67" s="56"/>
-    </row>
-    <row r="68" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="56"/>
       <c r="B68" s="59"/>
       <c r="C68" s="3" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="D68" s="56" t="s">
         <v>263</v>
       </c>
-      <c r="E68" s="56" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="69" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="56"/>
       <c r="B69" s="59"/>
       <c r="C69" s="3" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="D69" s="56" t="s">
-        <v>1408</v>
-      </c>
-      <c r="E69" s="56"/>
-    </row>
-    <row r="70" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="56"/>
       <c r="B70" s="59"/>
       <c r="C70" s="3" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
       <c r="D70" s="56" t="s">
         <v>551</v>
       </c>
-      <c r="E70" s="56" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="71" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="56"/>
       <c r="B71" s="59"/>
       <c r="C71" s="3" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="D71" s="56" t="s">
-        <v>1408</v>
-      </c>
-      <c r="E71" s="56"/>
-    </row>
-    <row r="72" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="56"/>
       <c r="B72" s="59"/>
       <c r="C72" s="3" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="D72" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="E72" s="56"/>
-    </row>
-    <row r="73" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="56"/>
       <c r="B73" s="59"/>
       <c r="C73" s="3" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="D73" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="E73" s="56"/>
-    </row>
-    <row r="74" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="74" customFormat="false" ht="378.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="56"/>
       <c r="B74" s="58" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="D74" s="56" t="s">
         <v>239</v>
       </c>
-      <c r="E74" s="56"/>
-    </row>
-    <row r="75" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="75" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="56"/>
       <c r="B75" s="59"/>
       <c r="C75" s="3" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E75" s="56"/>
-    </row>
-    <row r="76" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="76" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="56"/>
       <c r="B76" s="59"/>
       <c r="C76" s="3" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="D76" s="56" t="s">
-        <v>1408</v>
-      </c>
-      <c r="E76" s="56"/>
-    </row>
-    <row r="77" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="56"/>
       <c r="B77" s="59"/>
       <c r="C77" s="3" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
       <c r="D77" s="56" t="s">
         <v>263</v>
       </c>
-      <c r="E77" s="56" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="116" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="78" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="56"/>
       <c r="B78" s="58" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="D78" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="E78" s="56"/>
-    </row>
-    <row r="79" customFormat="false" ht="101.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="79" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="56"/>
       <c r="B79" s="58"/>
       <c r="C79" s="3" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="D79" s="56" t="s">
         <v>239</v>
       </c>
-      <c r="E79" s="56"/>
-    </row>
-    <row r="80" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="56"/>
       <c r="B80" s="59"/>
       <c r="C80" s="56" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E80" s="56"/>
-    </row>
-    <row r="81" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="56"/>
       <c r="B81" s="59"/>
       <c r="C81" s="56" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="D81" s="56" t="s">
-        <v>1404</v>
-      </c>
-      <c r="E81" s="56" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="56"/>
       <c r="B82" s="59"/>
       <c r="C82" s="3" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="D82" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="E82" s="56"/>
-    </row>
-    <row r="83" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="83" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="56"/>
       <c r="B83" s="59"/>
       <c r="C83" s="3" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E83" s="56"/>
-    </row>
-    <row r="84" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="56"/>
       <c r="B84" s="59"/>
       <c r="C84" s="3" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="D84" s="56" t="s">
-        <v>1408</v>
-      </c>
-      <c r="E84" s="56"/>
-    </row>
-    <row r="85" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="56"/>
       <c r="B85" s="59"/>
       <c r="C85" s="3" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="D85" s="56" t="s">
         <v>551</v>
       </c>
-      <c r="E85" s="56" t="s">
-        <v>1389</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="188.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="86" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="56"/>
       <c r="B86" s="58" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="D86" s="56" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E86" s="56"/>
-    </row>
-    <row r="87" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="56"/>
       <c r="B87" s="58"/>
       <c r="C87" s="3" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E87" s="56"/>
-    </row>
-    <row r="88" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="88" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="56"/>
       <c r="B88" s="59"/>
       <c r="C88" s="3" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E88" s="56"/>
-    </row>
-    <row r="89" customFormat="false" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="89" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="56"/>
       <c r="B89" s="59"/>
       <c r="C89" s="3" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="D89" s="56" t="s">
         <v>239</v>
       </c>
-      <c r="E89" s="56"/>
-    </row>
-    <row r="90" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="90" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="56"/>
       <c r="B90" s="59"/>
       <c r="C90" s="3" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="D90" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="E90" s="56"/>
-    </row>
-    <row r="91" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="91" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="56"/>
       <c r="B91" s="59"/>
       <c r="C91" s="3" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="D91" s="56" t="s">
         <v>263</v>
       </c>
-      <c r="E91" s="56" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="56"/>
       <c r="B92" s="59"/>
       <c r="C92" s="56" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="D92" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="E92" s="56"/>
-    </row>
-    <row r="93" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="93" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="56"/>
       <c r="B93" s="59"/>
       <c r="C93" s="3" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
       <c r="D93" s="56" t="s">
-        <v>1435</v>
-      </c>
-      <c r="E93" s="56"/>
-    </row>
-    <row r="94" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="56"/>
       <c r="B94" s="59"/>
       <c r="C94" s="3" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="D94" s="56" t="s">
-        <v>1408</v>
-      </c>
-      <c r="E94" s="56"/>
-    </row>
-    <row r="95" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="56"/>
       <c r="B95" s="59"/>
       <c r="C95" s="3" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="E95" s="56" t="s">
-        <v>1389</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="96" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="56"/>
       <c r="B96" s="59"/>
       <c r="C96" s="3" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
       <c r="D96" s="56" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E96" s="56"/>
-    </row>
-    <row r="97" customFormat="false" ht="101.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="56"/>
       <c r="B97" s="58" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="D97" s="56" t="s">
         <v>239</v>
       </c>
-      <c r="E97" s="56"/>
-    </row>
-    <row r="98" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="98" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="56"/>
       <c r="B98" s="59"/>
       <c r="C98" s="3" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="D98" s="56" t="s">
         <v>270</v>
       </c>
-      <c r="E98" s="56" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="56"/>
       <c r="B99" s="59"/>
       <c r="C99" s="3" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E99" s="56"/>
-    </row>
-    <row r="100" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="100" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="56"/>
       <c r="B100" s="59"/>
       <c r="C100" s="3" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E100" s="56"/>
-    </row>
-    <row r="101" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="101" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="56"/>
       <c r="B101" s="59"/>
       <c r="C101" s="3" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="D101" s="56" t="s">
         <v>551</v>
       </c>
-      <c r="E101" s="56" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="56"/>
       <c r="B102" s="59"/>
       <c r="C102" s="3" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="D102" s="56" t="s">
         <v>263</v>
       </c>
-      <c r="E102" s="56" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="56"/>
       <c r="B103" s="59"/>
       <c r="C103" s="3" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="D103" s="56" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E103" s="56"/>
-    </row>
-    <row r="104" customFormat="false" ht="130.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="56"/>
       <c r="B104" s="58" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
       <c r="D104" s="56" t="s">
-        <v>1382</v>
-      </c>
-      <c r="E104" s="56"/>
-    </row>
-    <row r="105" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="56"/>
       <c r="B105" s="59"/>
       <c r="C105" s="56" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E105" s="56"/>
-    </row>
-    <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="56"/>
       <c r="B106" s="59"/>
       <c r="C106" s="56" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
       <c r="D106" s="56" t="s">
-        <v>1408</v>
-      </c>
-      <c r="E106" s="56"/>
-    </row>
-    <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="56"/>
       <c r="B107" s="59"/>
       <c r="C107" s="56" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
       <c r="D107" s="56" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E107" s="56"/>
-    </row>
-    <row r="108" customFormat="false" ht="217.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="161.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="56"/>
       <c r="B108" s="58" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E108" s="56"/>
-    </row>
-    <row r="109" customFormat="false" ht="101.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="56"/>
       <c r="B109" s="59"/>
       <c r="C109" s="3" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
       <c r="D109" s="56" t="s">
         <v>239</v>
       </c>
-      <c r="E109" s="56"/>
-    </row>
-    <row r="110" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="56"/>
       <c r="B110" s="59"/>
       <c r="C110" s="3" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="D110" s="56" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E110" s="56"/>
-    </row>
-    <row r="111" customFormat="false" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="56"/>
       <c r="B111" s="59"/>
       <c r="C111" s="3" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="D111" s="56" t="s">
-        <v>1382</v>
-      </c>
-      <c r="E111" s="56"/>
-    </row>
-    <row r="112" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="56"/>
       <c r="B112" s="59"/>
       <c r="C112" s="3" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
       <c r="D112" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="E112" s="56"/>
-    </row>
-    <row r="113" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="113" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="56"/>
       <c r="B113" s="59"/>
       <c r="C113" s="3" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="D113" s="56" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E113" s="56"/>
-    </row>
-    <row r="114" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="56"/>
       <c r="B114" s="59"/>
       <c r="C114" s="3" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="D114" s="56" t="s">
         <v>263</v>
       </c>
-      <c r="E114" s="56" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="115" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="56"/>
       <c r="B115" s="59"/>
       <c r="C115" s="3" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="D115" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="E115" s="56"/>
-    </row>
-    <row r="116" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="56"/>
       <c r="B116" s="59"/>
       <c r="C116" s="3" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="D116" s="56" t="s">
         <v>242</v>
       </c>
-      <c r="E116" s="56"/>
-    </row>
-    <row r="117" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="117" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="56"/>
       <c r="B117" s="59"/>
       <c r="C117" s="3" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="D117" s="56" t="s">
-        <v>1408</v>
-      </c>
-      <c r="E117" s="56"/>
-    </row>
-    <row r="118" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="56"/>
       <c r="B118" s="58" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="D118" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="E118" s="56"/>
-    </row>
-    <row r="119" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="56"/>
       <c r="B119" s="59"/>
       <c r="C119" s="3" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="D119" s="56" t="s">
         <v>551</v>
       </c>
-      <c r="E119" s="56" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="56"/>
       <c r="B120" s="59"/>
       <c r="C120" s="56" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="D120" s="56" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E120" s="56"/>
-    </row>
-    <row r="121" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="333.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="56"/>
       <c r="B121" s="58" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="D121" s="56" t="s">
         <v>263</v>
       </c>
-      <c r="E121" s="56"/>
-    </row>
-    <row r="122" customFormat="false" ht="101.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="122" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="56"/>
       <c r="B122" s="59"/>
       <c r="C122" s="3" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
       <c r="D122" s="56" t="s">
         <v>239</v>
       </c>
-      <c r="E122" s="56"/>
-    </row>
-    <row r="123" customFormat="false" ht="145" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="123" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="56"/>
       <c r="B123" s="59"/>
       <c r="C123" s="3" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
       <c r="D123" s="56" t="s">
         <v>270</v>
       </c>
-      <c r="E123" s="56" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="56"/>
       <c r="B124" s="59"/>
       <c r="C124" s="3" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
       <c r="D124" s="56" t="s">
-        <v>1382</v>
-      </c>
-      <c r="E124" s="56"/>
-    </row>
-    <row r="125" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="56"/>
       <c r="B125" s="59"/>
       <c r="C125" s="3" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E125" s="56"/>
-    </row>
-    <row r="126" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="56"/>
       <c r="B126" s="59"/>
       <c r="C126" s="3" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
       <c r="D126" s="56" t="s">
         <v>239</v>
       </c>
-      <c r="E126" s="56"/>
-    </row>
-    <row r="127" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="56"/>
       <c r="B127" s="59"/>
       <c r="C127" s="3" t="s">
-        <v>1526</v>
+        <v>1523</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E127" s="56"/>
-    </row>
-    <row r="128" customFormat="false" ht="246.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="184.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="56"/>
       <c r="B128" s="59"/>
       <c r="C128" s="3" t="s">
-        <v>1527</v>
+        <v>1524</v>
       </c>
       <c r="D128" s="56" t="s">
         <v>239</v>
       </c>
-      <c r="E128" s="56"/>
-    </row>
-    <row r="129" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="56"/>
       <c r="B129" s="59"/>
       <c r="C129" s="3" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="D129" s="56" t="s">
         <v>263</v>
       </c>
-      <c r="E129" s="56" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="56"/>
       <c r="B130" s="59"/>
       <c r="C130" s="3" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="D130" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="E130" s="56"/>
-    </row>
-    <row r="131" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="131" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="56"/>
       <c r="B131" s="59"/>
       <c r="C131" s="3" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
       <c r="D131" s="56" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E131" s="56"/>
-    </row>
-    <row r="132" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="56"/>
       <c r="B132" s="59"/>
       <c r="C132" s="3" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
       <c r="D132" s="56" t="s">
         <v>239</v>
       </c>
-      <c r="E132" s="56"/>
-    </row>
-    <row r="133" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="133" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="56"/>
       <c r="B133" s="59"/>
       <c r="C133" s="3" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="D133" s="56" t="s">
-        <v>1408</v>
-      </c>
-      <c r="E133" s="56"/>
-    </row>
-    <row r="134" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="56"/>
       <c r="B134" s="58" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="D134" s="56" t="s">
         <v>239</v>
       </c>
-      <c r="E134" s="56"/>
-    </row>
-    <row r="135" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="56"/>
       <c r="B135" s="58"/>
       <c r="C135" s="3" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
       <c r="D135" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="E135" s="56"/>
-    </row>
-    <row r="136" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="136" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="56"/>
       <c r="B136" s="58"/>
       <c r="C136" s="3" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="D136" s="56" t="s">
         <v>263</v>
       </c>
-      <c r="E136" s="56" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="56"/>
       <c r="B137" s="59"/>
       <c r="C137" s="3" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="D137" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="E137" s="56"/>
-    </row>
-    <row r="138" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="56"/>
       <c r="B138" s="59" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="C138" s="56" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
       <c r="D138" s="56" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E138" s="56"/>
-    </row>
-    <row r="139" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="56"/>
       <c r="B139" s="59"/>
       <c r="C139" s="3" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="D139" s="56" t="s">
         <v>239</v>
       </c>
-      <c r="E139" s="56"/>
-    </row>
-    <row r="140" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="56"/>
       <c r="B140" s="59"/>
       <c r="C140" s="3" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="D140" s="56" t="s">
         <v>263</v>
       </c>
-      <c r="E140" s="56" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="56"/>
       <c r="B141" s="59"/>
       <c r="C141" s="56" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E141" s="56"/>
-    </row>
-    <row r="142" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="56"/>
       <c r="B142" s="59"/>
       <c r="C142" s="57" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
       <c r="D142" s="56" t="s">
         <v>239</v>
       </c>
-      <c r="E142" s="56"/>
-    </row>
-    <row r="143" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="56"/>
       <c r="B143" s="59" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="D143" s="56" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E143" s="56"/>
-    </row>
-    <row r="144" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="56"/>
       <c r="B144" s="59"/>
       <c r="C144" s="3" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="D144" s="56" t="s">
         <v>263</v>
       </c>
-      <c r="E144" s="56" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="56"/>
       <c r="B145" s="59"/>
       <c r="C145" s="3" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="D145" s="56" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E145" s="56"/>
-    </row>
-    <row r="146" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="56"/>
       <c r="B146" s="59"/>
       <c r="C146" s="3" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="D146" s="56" t="s">
-        <v>1382</v>
-      </c>
-      <c r="E146" s="56"/>
-    </row>
-    <row r="147" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="56"/>
       <c r="B147" s="59" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="D147" s="56" t="s">
         <v>239</v>
       </c>
-      <c r="E147" s="56"/>
-    </row>
-    <row r="148" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="56"/>
       <c r="B148" s="59"/>
       <c r="C148" s="3" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="D148" s="56" t="s">
         <v>427</v>
       </c>
-      <c r="E148" s="56" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="348" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="149" customFormat="false" ht="241.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="56"/>
       <c r="B149" s="58" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="D149" s="56" t="s">
         <v>239</v>
       </c>
-      <c r="E149" s="56"/>
-    </row>
-    <row r="150" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="150" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="56"/>
       <c r="B150" s="58"/>
       <c r="C150" s="3" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="D150" s="56" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E150" s="56"/>
-    </row>
-    <row r="151" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="56"/>
       <c r="B151" s="58"/>
       <c r="C151" s="3" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="D151" s="56" t="s">
         <v>390</v>
       </c>
-      <c r="E151" s="56"/>
-    </row>
-    <row r="152" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="56"/>
       <c r="B152" s="59"/>
       <c r="C152" s="3" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E152" s="56"/>
-    </row>
-    <row r="153" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="56"/>
       <c r="B153" s="59"/>
       <c r="C153" s="3" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="E153" s="56"/>
-    </row>
-    <row r="154" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="154" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="56"/>
       <c r="B154" s="59"/>
       <c r="C154" s="3" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="D154" s="56" t="s">
         <v>263</v>
       </c>
-      <c r="E154" s="56" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="56"/>
       <c r="B155" s="59"/>
       <c r="C155" s="3" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="D155" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="E155" s="56" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="156" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="56"/>
       <c r="B156" s="58" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="D156" s="56" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E156" s="56"/>
-    </row>
-    <row r="157" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="56"/>
       <c r="B157" s="56"/>
       <c r="C157" s="3" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="D157" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E157" s="56"/>
-    </row>
-    <row r="158" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="56"/>
       <c r="B158" s="56"/>
       <c r="C158" s="3" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D158" s="56" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="161.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="7" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B159" s="61" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C159" s="7" t="s">
         <v>1563</v>
-      </c>
-      <c r="D158" s="56" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E158" s="56"/>
-    </row>
-    <row r="159" customFormat="false" ht="232" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="7" t="s">
-        <v>1564</v>
-      </c>
-      <c r="B159" s="61" t="s">
-        <v>1565</v>
-      </c>
-      <c r="C159" s="7" t="s">
-        <v>1566</v>
       </c>
       <c r="D159" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E159" s="62"/>
-    </row>
-    <row r="160" customFormat="false" ht="275.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="160" customFormat="false" ht="207.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="62"/>
       <c r="B160" s="63"/>
       <c r="C160" s="7" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="D160" s="62" t="s">
         <v>239</v>
       </c>
-      <c r="E160" s="7"/>
-    </row>
-    <row r="161" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="161" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="62"/>
       <c r="B161" s="63"/>
       <c r="C161" s="7" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="D161" s="7" t="s">
         <v>1173</v>
       </c>
-      <c r="E161" s="62"/>
-    </row>
-    <row r="162" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="62"/>
       <c r="B162" s="63"/>
       <c r="C162" s="7" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>1382</v>
-      </c>
-      <c r="E162" s="62"/>
-    </row>
-    <row r="163" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="62"/>
       <c r="B163" s="63"/>
       <c r="C163" s="7" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E163" s="62"/>
-    </row>
-    <row r="164" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="62"/>
       <c r="B164" s="63"/>
       <c r="C164" s="7" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="D164" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="E164" s="62" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="165" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="62"/>
       <c r="B165" s="61" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="D165" s="62" t="s">
         <v>239</v>
       </c>
-      <c r="E165" s="62"/>
-    </row>
-    <row r="166" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="166" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="62"/>
       <c r="B166" s="63"/>
       <c r="C166" s="7" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="D166" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="E166" s="62"/>
-    </row>
-    <row r="167" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="62"/>
       <c r="B167" s="63"/>
       <c r="C167" s="7" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="D167" s="62" t="s">
-        <v>1408</v>
-      </c>
-      <c r="E167" s="62"/>
-    </row>
-    <row r="168" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="62"/>
       <c r="B168" s="61" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="D168" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="E168" s="62"/>
-    </row>
-    <row r="169" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="62"/>
       <c r="B169" s="63"/>
       <c r="C169" s="62" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="D169" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E169" s="62"/>
-    </row>
-    <row r="170" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="62"/>
       <c r="B170" s="63"/>
       <c r="C170" s="64" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="D170" s="62" t="s">
-        <v>1408</v>
-      </c>
-      <c r="E170" s="62"/>
-    </row>
-    <row r="171" customFormat="false" ht="319" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="230.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="62"/>
       <c r="B171" s="61" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="D171" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="E171" s="62"/>
-    </row>
-    <row r="172" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="62"/>
       <c r="B172" s="61"/>
       <c r="C172" s="7" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="D172" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="E172" s="62"/>
-    </row>
-    <row r="173" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="173" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="62"/>
       <c r="B173" s="61"/>
       <c r="C173" s="7" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="D173" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="E173" s="62"/>
-    </row>
-    <row r="174" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="174" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="62"/>
       <c r="B174" s="63"/>
       <c r="C174" s="7" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="D174" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="E174" s="62" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="101.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="175" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="62"/>
       <c r="B175" s="63"/>
       <c r="C175" s="7" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="D175" s="62" t="s">
         <v>239</v>
       </c>
-      <c r="E175" s="62"/>
-    </row>
-    <row r="176" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="62"/>
       <c r="B176" s="63"/>
       <c r="C176" s="7" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="D176" s="62" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E176" s="62"/>
-    </row>
-    <row r="177" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="62"/>
       <c r="B177" s="63"/>
       <c r="C177" s="7" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="D177" s="62" t="s">
         <v>263</v>
       </c>
-      <c r="E177" s="62" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="62"/>
       <c r="B178" s="63"/>
       <c r="C178" s="7" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="D178" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="E178" s="62"/>
-    </row>
-    <row r="179" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="62"/>
       <c r="B179" s="63"/>
       <c r="C179" s="7" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="D179" s="62" t="s">
         <v>239</v>
       </c>
-      <c r="E179" s="62"/>
-    </row>
-    <row r="180" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="180" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="62"/>
       <c r="B180" s="63"/>
       <c r="C180" s="7" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="D180" s="62" t="s">
         <v>551</v>
       </c>
-      <c r="E180" s="62" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="181" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="62"/>
       <c r="B181" s="63"/>
       <c r="C181" s="7" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="D181" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="E181" s="62"/>
-    </row>
-    <row r="182" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="182" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="62"/>
       <c r="B182" s="63"/>
       <c r="C182" s="7" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="D182" s="62" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E182" s="62"/>
-    </row>
-    <row r="183" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="62"/>
       <c r="B183" s="63"/>
       <c r="C183" s="7" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="D183" s="62" t="s">
-        <v>1408</v>
-      </c>
-      <c r="E183" s="62"/>
-    </row>
-    <row r="184" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="62"/>
       <c r="B184" s="63"/>
       <c r="C184" s="7" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="D184" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E184" s="62"/>
-    </row>
-    <row r="185" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="62"/>
       <c r="B185" s="63"/>
       <c r="C185" s="7" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E185" s="62"/>
-    </row>
-    <row r="186" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="62"/>
       <c r="B186" s="63"/>
       <c r="C186" s="62" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="D186" s="62" t="s">
-        <v>1408</v>
-      </c>
-      <c r="E186" s="62"/>
-    </row>
-    <row r="187" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="62"/>
       <c r="B187" s="63"/>
       <c r="C187" s="7" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="D187" s="62" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E187" s="62"/>
-    </row>
-    <row r="188" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="62"/>
       <c r="B188" s="63"/>
       <c r="C188" s="7" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
       <c r="D188" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="E188" s="62"/>
-    </row>
-    <row r="189" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="189" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="62"/>
       <c r="B189" s="63"/>
       <c r="C189" s="7" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="D189" s="62" t="s">
-        <v>1408</v>
-      </c>
-      <c r="E189" s="62"/>
-    </row>
-    <row r="190" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="62"/>
       <c r="B190" s="63"/>
       <c r="C190" s="64" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="D190" s="62" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E190" s="62"/>
-    </row>
-    <row r="191" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="378.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="62"/>
       <c r="B191" s="61" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="D191" s="62" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E191" s="62"/>
-    </row>
-    <row r="192" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="62"/>
       <c r="B192" s="61"/>
       <c r="C192" s="7" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="D192" s="62" t="s">
         <v>239</v>
       </c>
-      <c r="E192" s="62"/>
-    </row>
-    <row r="193" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="62"/>
       <c r="B193" s="61"/>
       <c r="C193" s="7" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="D193" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="E193" s="62" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="62"/>
       <c r="B194" s="61"/>
       <c r="C194" s="7" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="D194" s="62" t="s">
         <v>239</v>
       </c>
-      <c r="E194" s="62"/>
-    </row>
-    <row r="195" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="195" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="62"/>
       <c r="B195" s="61"/>
       <c r="C195" s="7" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
       <c r="D195" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="E195" s="62"/>
-    </row>
-    <row r="196" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="196" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="62"/>
       <c r="B196" s="63"/>
       <c r="C196" s="7" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="D196" s="62" t="s">
-        <v>1408</v>
-      </c>
-      <c r="E196" s="62"/>
-    </row>
-    <row r="197" customFormat="false" ht="174" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="62"/>
       <c r="B197" s="63"/>
       <c r="C197" s="7" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="D197" s="62" t="s">
         <v>239</v>
       </c>
-      <c r="E197" s="62"/>
-    </row>
-    <row r="198" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="198" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="62"/>
       <c r="B198" s="63"/>
       <c r="C198" s="7" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
       <c r="D198" s="62" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E198" s="62"/>
-    </row>
-    <row r="199" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="62"/>
       <c r="B199" s="63"/>
       <c r="C199" s="7" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="D199" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="E199" s="62" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="116" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="200" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="62"/>
       <c r="B200" s="63"/>
       <c r="C200" s="7" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
       <c r="D200" s="62" t="s">
         <v>239</v>
       </c>
-      <c r="E200" s="62"/>
-    </row>
-    <row r="201" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="201" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="62"/>
       <c r="B201" s="63"/>
       <c r="C201" s="7" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
       <c r="D201" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E201" s="62"/>
-    </row>
-    <row r="202" customFormat="false" ht="101.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="202" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="62"/>
       <c r="B202" s="63"/>
       <c r="C202" s="7" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
       <c r="D202" s="62" t="s">
         <v>239</v>
       </c>
-      <c r="E202" s="62"/>
-    </row>
-    <row r="203" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="62"/>
       <c r="B203" s="63"/>
       <c r="C203" s="7" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
       <c r="D203" s="62" t="s">
         <v>1173</v>
       </c>
-      <c r="E203" s="62"/>
-    </row>
-    <row r="204" customFormat="false" ht="188.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="204" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="62"/>
       <c r="B204" s="63"/>
       <c r="C204" s="7" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
       <c r="D204" s="62" t="s">
         <v>239</v>
       </c>
-      <c r="E204" s="62"/>
-    </row>
-    <row r="205" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="205" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="62"/>
       <c r="B205" s="63"/>
       <c r="C205" s="7" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
       <c r="D205" s="62" t="s">
-        <v>1408</v>
-      </c>
-      <c r="E205" s="62"/>
-    </row>
-    <row r="206" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="62"/>
       <c r="B206" s="61" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
       <c r="D206" s="62" t="s">
         <v>239</v>
       </c>
-      <c r="E206" s="62"/>
-    </row>
-    <row r="207" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="207" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="62"/>
       <c r="B207" s="63"/>
       <c r="C207" s="7" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="D207" s="62" t="s">
         <v>390</v>
       </c>
-      <c r="E207" s="62"/>
-    </row>
-    <row r="208" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="208" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="62"/>
       <c r="B208" s="63"/>
       <c r="C208" s="7" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="D208" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="E208" s="62" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="209" customFormat="false" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="209" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="62"/>
       <c r="B209" s="61" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="D209" s="62" t="s">
         <v>239</v>
       </c>
-      <c r="E209" s="62"/>
-    </row>
-    <row r="210" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="62"/>
       <c r="B210" s="61"/>
       <c r="C210" s="7" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="D210" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="E210" s="62"/>
-    </row>
-    <row r="211" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="62"/>
       <c r="B211" s="63"/>
       <c r="C211" s="62" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>1625</v>
-      </c>
-      <c r="E211" s="62" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="212" customFormat="false" ht="145" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="62"/>
       <c r="B212" s="61" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="C212" s="7" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="D212" s="62" t="s">
         <v>239</v>
       </c>
-      <c r="E212" s="62"/>
-    </row>
-    <row r="213" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="62"/>
       <c r="B213" s="61"/>
       <c r="C213" s="7" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="D213" s="62" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E213" s="62"/>
-    </row>
-    <row r="214" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="62"/>
       <c r="B214" s="61"/>
       <c r="C214" s="7" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
       <c r="D214" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="E214" s="62"/>
-    </row>
-    <row r="215" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="62"/>
       <c r="B215" s="63"/>
       <c r="C215" s="7" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
       <c r="D215" s="62" t="s">
-        <v>1408</v>
-      </c>
-      <c r="E215" s="62"/>
-    </row>
-    <row r="216" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="62"/>
       <c r="B216" s="63"/>
       <c r="C216" s="7" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="D216" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="E216" s="62"/>
-    </row>
-    <row r="217" customFormat="false" ht="174" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="217" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="62"/>
       <c r="B217" s="63"/>
       <c r="C217" s="7" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="D217" s="62" t="s">
         <v>427</v>
       </c>
-      <c r="E217" s="62" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="218" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="218" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="62"/>
       <c r="B218" s="61" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
       <c r="D218" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="E218" s="62"/>
-    </row>
-    <row r="219" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="62"/>
       <c r="B219" s="63"/>
       <c r="C219" s="62" t="s">
-        <v>1635</v>
+        <v>1632</v>
       </c>
       <c r="D219" s="62" t="s">
         <v>427</v>
       </c>
-      <c r="E219" s="62" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="220" customFormat="false" ht="159.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="220" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="62"/>
       <c r="B220" s="61" t="s">
-        <v>1636</v>
+        <v>1633</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
       <c r="D220" s="62" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E220" s="62"/>
-    </row>
-    <row r="221" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="62"/>
       <c r="B221" s="61"/>
       <c r="C221" s="7" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
       <c r="D221" s="62" t="s">
-        <v>1408</v>
-      </c>
-      <c r="E221" s="62"/>
-    </row>
-    <row r="222" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="62"/>
       <c r="B222" s="61"/>
       <c r="C222" s="7" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="D222" s="62" t="s">
         <v>551</v>
       </c>
-      <c r="E222" s="62" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="223" customFormat="false" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="223" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="62"/>
       <c r="B223" s="63"/>
       <c r="C223" s="7" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
       <c r="D223" s="62" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E223" s="62"/>
-    </row>
-    <row r="224" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="62"/>
       <c r="B224" s="63"/>
       <c r="C224" s="7" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="D224" s="7" t="s">
-        <v>1642</v>
-      </c>
-      <c r="E224" s="62" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="225" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="62"/>
       <c r="B225" s="63"/>
       <c r="C225" s="7" t="s">
-        <v>1643</v>
+        <v>1640</v>
       </c>
       <c r="D225" s="62" t="s">
-        <v>1435</v>
-      </c>
-      <c r="E225" s="62"/>
-    </row>
-    <row r="226" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="62"/>
       <c r="B226" s="63"/>
       <c r="C226" s="64" t="s">
-        <v>1644</v>
+        <v>1641</v>
       </c>
       <c r="D226" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="E226" s="62"/>
-    </row>
-    <row r="227" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="62"/>
       <c r="B227" s="63"/>
       <c r="C227" s="64" t="s">
-        <v>1645</v>
+        <v>1642</v>
       </c>
       <c r="D227" s="62" t="s">
         <v>390</v>
       </c>
-      <c r="E227" s="62"/>
-    </row>
-    <row r="228" customFormat="false" ht="130.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="228" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="62"/>
       <c r="B228" s="61" t="s">
-        <v>1646</v>
+        <v>1643</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
       <c r="D228" s="62" t="s">
         <v>239</v>
       </c>
-      <c r="E228" s="62"/>
-    </row>
-    <row r="229" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="229" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="62"/>
       <c r="B229" s="63"/>
       <c r="C229" s="7" t="s">
-        <v>1648</v>
+        <v>1645</v>
       </c>
       <c r="D229" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="E229" s="62"/>
-    </row>
-    <row r="230" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="230" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="62"/>
       <c r="B230" s="63"/>
       <c r="C230" s="7" t="s">
-        <v>1649</v>
+        <v>1646</v>
       </c>
       <c r="D230" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="E230" s="62" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="62"/>
       <c r="B231" s="63"/>
       <c r="C231" s="7" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
       <c r="D231" s="62" t="s">
         <v>239</v>
       </c>
-      <c r="E231" s="62"/>
-    </row>
-    <row r="232" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="232" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="62"/>
       <c r="B232" s="63"/>
       <c r="C232" s="7" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
       <c r="D232" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="E232" s="62"/>
-    </row>
-    <row r="233" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="233" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="62"/>
       <c r="B233" s="63"/>
       <c r="C233" s="7" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
       <c r="D233" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="E233" s="62"/>
-    </row>
-    <row r="234" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="62"/>
       <c r="B234" s="63"/>
       <c r="C234" s="7" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
       <c r="D234" s="62" t="s">
-        <v>1408</v>
-      </c>
-      <c r="E234" s="62"/>
-    </row>
-    <row r="235" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="62"/>
       <c r="B235" s="61" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
       <c r="C235" s="64" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="D235" s="62" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E235" s="62"/>
-    </row>
-    <row r="236" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="62"/>
       <c r="B236" s="61"/>
       <c r="C236" s="64" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
       <c r="D236" s="62" t="s">
         <v>239</v>
       </c>
-      <c r="E236" s="62"/>
-    </row>
-    <row r="237" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="62"/>
       <c r="B237" s="61"/>
       <c r="C237" s="64" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
       <c r="D237" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="E237" s="62"/>
-    </row>
-    <row r="238" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="238" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="62"/>
       <c r="B238" s="61" t="s">
-        <v>1658</v>
+        <v>1655</v>
       </c>
       <c r="C238" s="7" t="s">
-        <v>1659</v>
+        <v>1656</v>
       </c>
       <c r="D238" s="62" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E238" s="62"/>
-    </row>
-    <row r="239" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="62"/>
       <c r="B239" s="61"/>
       <c r="C239" s="7" t="s">
-        <v>1660</v>
+        <v>1657</v>
       </c>
       <c r="D239" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="E239" s="62"/>
-    </row>
-    <row r="240" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="240" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="62"/>
       <c r="B240" s="61" t="s">
-        <v>1661</v>
+        <v>1658</v>
       </c>
       <c r="C240" s="7" t="s">
-        <v>1662</v>
+        <v>1659</v>
       </c>
       <c r="D240" s="62" t="s">
         <v>239</v>
       </c>
-      <c r="E240" s="62"/>
-    </row>
-    <row r="241" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="62"/>
       <c r="B241" s="63"/>
       <c r="C241" s="7" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="D241" s="62" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E241" s="62"/>
-    </row>
-    <row r="242" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="62"/>
       <c r="B242" s="61" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
       <c r="C242" s="62" t="s">
-        <v>1665</v>
+        <v>1662</v>
       </c>
       <c r="D242" s="62" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E242" s="62"/>
-    </row>
-    <row r="243" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="62"/>
       <c r="B243" s="63"/>
       <c r="C243" s="7" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="D243" s="62" t="s">
         <v>239</v>
       </c>
-      <c r="E243" s="62"/>
-    </row>
-    <row r="244" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="62"/>
       <c r="B244" s="63"/>
       <c r="C244" s="64" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
       <c r="D244" s="62" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E244" s="62"/>
-    </row>
-    <row r="245" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="62"/>
       <c r="B245" s="61" t="s">
-        <v>1668</v>
+        <v>1665</v>
       </c>
       <c r="C245" s="7" t="s">
-        <v>1669</v>
+        <v>1666</v>
       </c>
       <c r="D245" s="62" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E245" s="62"/>
-    </row>
-    <row r="246" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="62"/>
       <c r="B246" s="63"/>
       <c r="C246" s="7" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
       <c r="D246" s="62" t="s">
         <v>239</v>
       </c>
-      <c r="E246" s="62"/>
-    </row>
-    <row r="247" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="62"/>
       <c r="B247" s="63"/>
       <c r="C247" s="62" t="s">
-        <v>1671</v>
+        <v>1668</v>
       </c>
       <c r="D247" s="7" t="s">
-        <v>1625</v>
-      </c>
-      <c r="E247" s="62" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="248" customFormat="false" ht="406" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="298.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="62"/>
       <c r="B248" s="61" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
       <c r="C248" s="7" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="D248" s="62" t="s">
         <v>239</v>
       </c>
-      <c r="E248" s="62"/>
-    </row>
-    <row r="249" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="62"/>
       <c r="B249" s="63"/>
       <c r="C249" s="7" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="D249" s="62" t="s">
         <v>390</v>
       </c>
-      <c r="E249" s="62"/>
-    </row>
-    <row r="250" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="250" customFormat="false" ht="367.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="62"/>
       <c r="B250" s="61" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="C250" s="7" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
       <c r="D250" s="62" t="s">
         <v>239</v>
       </c>
-      <c r="E250" s="62"/>
-    </row>
-    <row r="251" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="251" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="62"/>
       <c r="B251" s="63"/>
       <c r="C251" s="7" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="D251" s="62" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E251" s="62"/>
-    </row>
-    <row r="252" customFormat="false" ht="203" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="62"/>
       <c r="B252" s="63"/>
       <c r="C252" s="7" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
       <c r="D252" s="62" t="s">
         <v>239</v>
       </c>
-      <c r="E252" s="62"/>
-    </row>
-    <row r="253" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="62"/>
       <c r="B253" s="63"/>
       <c r="C253" s="7" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="D253" s="62" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E253" s="62"/>
-    </row>
-    <row r="254" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="62"/>
       <c r="B254" s="63"/>
       <c r="C254" s="7" t="s">
-        <v>1680</v>
+        <v>1677</v>
       </c>
       <c r="D254" s="62" t="s">
         <v>239</v>
       </c>
-      <c r="E254" s="62"/>
-    </row>
-    <row r="255" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="255" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="62"/>
       <c r="B255" s="63"/>
       <c r="C255" s="7" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
       <c r="D255" s="62" t="s">
-        <v>1382</v>
-      </c>
-      <c r="E255" s="62"/>
-    </row>
-    <row r="256" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="62"/>
       <c r="B256" s="63"/>
       <c r="C256" s="7" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
       <c r="D256" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="E256" s="62"/>
-    </row>
-    <row r="257" customFormat="false" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="257" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="62"/>
       <c r="B257" s="63"/>
       <c r="C257" s="7" t="s">
-        <v>1683</v>
+        <v>1680</v>
       </c>
       <c r="D257" s="62" t="s">
-        <v>1382</v>
-      </c>
-      <c r="E257" s="62"/>
-    </row>
-    <row r="258" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="62"/>
       <c r="B258" s="63"/>
       <c r="C258" s="7" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="D258" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="E258" s="62" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="259" customFormat="false" ht="145" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="259" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="62"/>
       <c r="B259" s="63"/>
       <c r="C259" s="7" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
       <c r="D259" s="62" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E259" s="62"/>
-    </row>
-    <row r="260" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="62"/>
       <c r="B260" s="63"/>
       <c r="C260" s="7" t="s">
-        <v>1686</v>
+        <v>1683</v>
       </c>
       <c r="D260" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="E260" s="62"/>
-    </row>
-    <row r="261" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="62"/>
       <c r="B261" s="63"/>
       <c r="C261" s="7" t="s">
-        <v>1687</v>
+        <v>1684</v>
       </c>
       <c r="D261" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E261" s="62"/>
-    </row>
-    <row r="262" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="262" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="62"/>
       <c r="B262" s="63"/>
       <c r="C262" s="7" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="D262" s="62" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E262" s="62"/>
-    </row>
-    <row r="263" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="62"/>
       <c r="B263" s="63"/>
       <c r="C263" s="7" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="D263" s="62" t="s">
         <v>242</v>
       </c>
-      <c r="E263" s="62"/>
-    </row>
-    <row r="264" customFormat="false" ht="101.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="264" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="62"/>
       <c r="B264" s="63"/>
       <c r="C264" s="7" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
       <c r="D264" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="E264" s="62"/>
-    </row>
-    <row r="265" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="265" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="62"/>
       <c r="B265" s="63"/>
       <c r="C265" s="7" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
       <c r="D265" s="62" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E265" s="62"/>
-    </row>
-    <row r="266" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="62"/>
       <c r="B266" s="63"/>
       <c r="C266" s="7" t="s">
-        <v>1692</v>
+        <v>1689</v>
       </c>
       <c r="D266" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="E266" s="62"/>
-    </row>
-    <row r="267" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="267" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="62"/>
       <c r="B267" s="61" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="C267" s="7" t="s">
-        <v>1694</v>
+        <v>1691</v>
       </c>
       <c r="D267" s="62" t="s">
-        <v>1382</v>
-      </c>
-      <c r="E267" s="62"/>
-    </row>
-    <row r="268" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="62"/>
       <c r="B268" s="63"/>
       <c r="C268" s="7" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
       <c r="D268" s="7" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E268" s="62"/>
-    </row>
-    <row r="269" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="62"/>
       <c r="B269" s="63"/>
       <c r="C269" s="7" t="s">
-        <v>1696</v>
+        <v>1693</v>
       </c>
       <c r="D269" s="62" t="s">
         <v>239</v>
       </c>
-      <c r="E269" s="62"/>
-    </row>
-    <row r="270" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="270" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="62"/>
       <c r="B270" s="61" t="s">
-        <v>1697</v>
+        <v>1694</v>
       </c>
       <c r="C270" s="7" t="s">
-        <v>1698</v>
+        <v>1695</v>
       </c>
       <c r="D270" s="62" t="s">
-        <v>1408</v>
-      </c>
-      <c r="E270" s="62"/>
-    </row>
-    <row r="271" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="62"/>
       <c r="B271" s="63"/>
       <c r="C271" s="7" t="s">
-        <v>1699</v>
+        <v>1696</v>
       </c>
       <c r="D271" s="62" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E271" s="62"/>
-    </row>
-    <row r="272" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="62"/>
       <c r="B272" s="61" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
       <c r="C272" s="7" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
       <c r="D272" s="62" t="s">
-        <v>1408</v>
-      </c>
-      <c r="E272" s="62"/>
-    </row>
-    <row r="273" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="62"/>
       <c r="B273" s="63"/>
       <c r="C273" s="7" t="s">
-        <v>1702</v>
+        <v>1699</v>
       </c>
       <c r="D273" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="E273" s="62" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="274" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="62"/>
       <c r="B274" s="63"/>
       <c r="C274" s="7" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
       <c r="D274" s="62" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E274" s="62"/>
-    </row>
-    <row r="275" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="62"/>
       <c r="B275" s="61" t="s">
-        <v>1704</v>
+        <v>1701</v>
       </c>
       <c r="C275" s="7" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="D275" s="62" t="s">
         <v>239</v>
       </c>
-      <c r="E275" s="62"/>
-    </row>
-    <row r="276" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="62"/>
       <c r="B276" s="63"/>
       <c r="C276" s="7" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="D276" s="62" t="s">
         <v>390</v>
       </c>
-      <c r="E276" s="62"/>
-    </row>
-    <row r="277" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="62"/>
       <c r="B277" s="63"/>
       <c r="C277" s="7" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="D277" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="E277" s="62" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="278" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="278" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="62"/>
       <c r="B278" s="61" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
       <c r="C278" s="7" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="D278" s="62" t="s">
         <v>239</v>
       </c>
-      <c r="E278" s="62"/>
-    </row>
-    <row r="279" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="62"/>
       <c r="B279" s="61"/>
       <c r="C279" s="7" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="D279" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="E279" s="62"/>
-    </row>
-    <row r="280" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="280" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="62"/>
       <c r="B280" s="61"/>
       <c r="C280" s="7" t="s">
-        <v>1711</v>
+        <v>1708</v>
       </c>
       <c r="D280" s="62" t="s">
-        <v>1382</v>
-      </c>
-      <c r="E280" s="62"/>
-    </row>
-    <row r="281" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="62"/>
       <c r="B281" s="63"/>
       <c r="C281" s="64" t="s">
-        <v>1712</v>
+        <v>1709</v>
       </c>
       <c r="D281" s="62" t="s">
         <v>263</v>
       </c>
-      <c r="E281" s="62" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="282" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="282" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="62"/>
       <c r="B282" s="61" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
       <c r="C282" s="7" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="D282" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E282" s="62"/>
-    </row>
-    <row r="283" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="62"/>
       <c r="B283" s="61"/>
       <c r="C283" s="7" t="s">
-        <v>1715</v>
+        <v>1712</v>
       </c>
       <c r="D283" s="7" t="s">
-        <v>1408</v>
-      </c>
-      <c r="E283" s="62"/>
-    </row>
-    <row r="284" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="62"/>
       <c r="B284" s="63"/>
       <c r="C284" s="7" t="s">
-        <v>1716</v>
+        <v>1713</v>
       </c>
       <c r="D284" s="62" t="s">
         <v>239</v>
       </c>
-      <c r="E284" s="62"/>
-    </row>
-    <row r="285" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="62"/>
       <c r="B285" s="63"/>
       <c r="C285" s="7" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="D285" s="62" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E285" s="62"/>
-    </row>
-    <row r="286" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="62"/>
       <c r="B286" s="61" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="C286" s="64" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="D286" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="E286" s="62"/>
-    </row>
-    <row r="287" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="287" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="62"/>
       <c r="B287" s="61" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
       <c r="C287" s="64" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="D287" s="62" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E287" s="62"/>
-    </row>
-    <row r="288" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="62"/>
       <c r="B288" s="63"/>
       <c r="C288" s="7" t="s">
-        <v>1721</v>
+        <v>1718</v>
       </c>
       <c r="D288" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="E288" s="62"/>
-    </row>
-    <row r="289" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="62"/>
       <c r="B289" s="63"/>
       <c r="C289" s="65" t="s">
-        <v>1722</v>
+        <v>1719</v>
       </c>
       <c r="D289" s="62" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E289" s="62"/>
-    </row>
-    <row r="290" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="62"/>
       <c r="B290" s="61" t="s">
-        <v>1723</v>
+        <v>1720</v>
       </c>
       <c r="C290" s="7" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
       <c r="D290" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="E290" s="62" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="291" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="62"/>
       <c r="B291" s="63"/>
       <c r="C291" s="62" t="s">
-        <v>1725</v>
+        <v>1722</v>
       </c>
       <c r="D291" s="62" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E291" s="62"/>
-    </row>
-    <row r="292" customFormat="false" ht="145" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="62"/>
       <c r="B292" s="61" t="s">
-        <v>1726</v>
+        <v>1723</v>
       </c>
       <c r="C292" s="7" t="s">
-        <v>1727</v>
+        <v>1724</v>
       </c>
       <c r="D292" s="62" t="s">
-        <v>1408</v>
-      </c>
-      <c r="E292" s="62"/>
-    </row>
-    <row r="293" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="62"/>
       <c r="B293" s="61"/>
       <c r="C293" s="7" t="s">
-        <v>1728</v>
+        <v>1725</v>
       </c>
       <c r="D293" s="62" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E293" s="62"/>
-    </row>
-    <row r="294" customFormat="false" ht="101.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="62"/>
       <c r="B294" s="61"/>
       <c r="C294" s="7" t="s">
-        <v>1729</v>
+        <v>1726</v>
       </c>
       <c r="D294" s="62" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E294" s="62"/>
-    </row>
-    <row r="295" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="62"/>
       <c r="B295" s="63"/>
       <c r="C295" s="7" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
       <c r="D295" s="62" t="s">
         <v>427</v>
       </c>
-      <c r="E295" s="62" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="296" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="62"/>
       <c r="B296" s="63"/>
       <c r="C296" s="7" t="s">
-        <v>1731</v>
+        <v>1728</v>
       </c>
       <c r="D296" s="62" t="s">
-        <v>1408</v>
-      </c>
-      <c r="E296" s="62"/>
-    </row>
-    <row r="297" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="62"/>
       <c r="B297" s="61" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="C297" s="7" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
       <c r="D297" s="62" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E297" s="62"/>
-    </row>
-    <row r="298" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="62"/>
       <c r="B298" s="61"/>
       <c r="C298" s="7" t="s">
-        <v>1734</v>
+        <v>1731</v>
       </c>
       <c r="D298" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="E298" s="62"/>
-    </row>
-    <row r="299" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="62"/>
       <c r="B299" s="63"/>
       <c r="C299" s="66" t="s">
-        <v>1735</v>
+        <v>1732</v>
       </c>
       <c r="D299" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="E299" s="62"/>
-    </row>
-    <row r="300" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="62"/>
       <c r="B300" s="63"/>
       <c r="C300" s="7" t="s">
-        <v>1736</v>
+        <v>1733</v>
       </c>
       <c r="D300" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="E300" s="62"/>
-    </row>
-    <row r="301" customFormat="false" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="301" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="62"/>
       <c r="B301" s="61" t="s">
-        <v>1737</v>
+        <v>1734</v>
       </c>
       <c r="C301" s="7" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
       <c r="D301" s="62" t="s">
         <v>239</v>
       </c>
-      <c r="E301" s="62"/>
-    </row>
-    <row r="302" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="302" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="62"/>
       <c r="B302" s="63"/>
       <c r="C302" s="7" t="s">
-        <v>1739</v>
+        <v>1736</v>
       </c>
       <c r="D302" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="E302" s="62"/>
-    </row>
-    <row r="303" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="62"/>
       <c r="B303" s="63"/>
       <c r="C303" s="7" t="s">
-        <v>1740</v>
+        <v>1737</v>
       </c>
       <c r="D303" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="E303" s="62"/>
-    </row>
-    <row r="304" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="62"/>
       <c r="B304" s="63"/>
       <c r="C304" s="7" t="s">
-        <v>1741</v>
+        <v>1738</v>
       </c>
       <c r="D304" s="62" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E304" s="62"/>
-    </row>
-    <row r="305" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="62"/>
       <c r="B305" s="63"/>
       <c r="C305" s="7" t="s">
-        <v>1742</v>
+        <v>1739</v>
       </c>
       <c r="D305" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="E305" s="62"/>
-    </row>
-    <row r="306" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="306" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="62"/>
       <c r="B306" s="63"/>
       <c r="C306" s="7" t="s">
-        <v>1743</v>
+        <v>1740</v>
       </c>
       <c r="D306" s="7" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E306" s="7"/>
-    </row>
-    <row r="307" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="62"/>
       <c r="B307" s="61" t="s">
-        <v>1744</v>
+        <v>1741</v>
       </c>
       <c r="C307" s="7" t="s">
-        <v>1745</v>
+        <v>1742</v>
       </c>
       <c r="D307" s="62" t="s">
         <v>390</v>
       </c>
-      <c r="E307" s="62"/>
-    </row>
-    <row r="308" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="62"/>
       <c r="B308" s="63"/>
       <c r="C308" s="7" t="s">
-        <v>1746</v>
+        <v>1743</v>
       </c>
       <c r="D308" s="62" t="s">
         <v>239</v>
       </c>
-      <c r="E308" s="62"/>
-    </row>
-    <row r="309" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="62"/>
       <c r="B309" s="63"/>
       <c r="C309" s="7" t="s">
-        <v>1747</v>
+        <v>1744</v>
       </c>
       <c r="D309" s="62" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E309" s="62"/>
-    </row>
-    <row r="310" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="62"/>
       <c r="B310" s="63" t="s">
-        <v>1748</v>
+        <v>1745</v>
       </c>
       <c r="C310" s="7" t="s">
-        <v>1749</v>
+        <v>1746</v>
       </c>
       <c r="D310" s="62" t="s">
         <v>239</v>
       </c>
-      <c r="E310" s="62"/>
-    </row>
-    <row r="311" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="311" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="62"/>
       <c r="B311" s="63"/>
       <c r="C311" s="7" t="s">
-        <v>1750</v>
+        <v>1747</v>
       </c>
       <c r="D311" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="E311" s="62"/>
-    </row>
-    <row r="312" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="312" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="62"/>
       <c r="B312" s="63"/>
       <c r="C312" s="7" t="s">
-        <v>1751</v>
+        <v>1748</v>
       </c>
       <c r="D312" s="62" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E312" s="62"/>
-    </row>
-    <row r="313" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="62"/>
       <c r="B313" s="63" t="s">
-        <v>1752</v>
+        <v>1749</v>
       </c>
       <c r="C313" s="7" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="D313" s="62" t="s">
         <v>390</v>
       </c>
-      <c r="E313" s="62"/>
-    </row>
-    <row r="314" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="62"/>
       <c r="B314" s="63"/>
       <c r="C314" s="7" t="s">
-        <v>1754</v>
+        <v>1751</v>
       </c>
       <c r="D314" s="62" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E314" s="62"/>
-    </row>
-    <row r="315" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="62"/>
       <c r="B315" s="61" t="s">
-        <v>1755</v>
+        <v>1752</v>
       </c>
       <c r="C315" s="7" t="s">
-        <v>1756</v>
+        <v>1753</v>
       </c>
       <c r="D315" s="62" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E315" s="62"/>
-    </row>
-    <row r="316" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="62"/>
       <c r="B316" s="63"/>
       <c r="C316" s="7" t="s">
-        <v>1757</v>
+        <v>1754</v>
       </c>
       <c r="D316" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="E316" s="62"/>
-    </row>
-    <row r="317" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="62"/>
       <c r="B317" s="63"/>
       <c r="C317" s="7" t="s">
-        <v>1758</v>
+        <v>1755</v>
       </c>
       <c r="D317" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="E317" s="62"/>
-    </row>
-    <row r="318" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="62"/>
       <c r="B318" s="63"/>
       <c r="C318" s="7" t="s">
-        <v>1759</v>
+        <v>1756</v>
       </c>
       <c r="D318" s="62" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E318" s="62"/>
-    </row>
-    <row r="319" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="62"/>
       <c r="B319" s="63" t="s">
-        <v>1760</v>
+        <v>1757</v>
       </c>
       <c r="C319" s="7" t="s">
-        <v>1761</v>
+        <v>1758</v>
       </c>
       <c r="D319" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="E319" s="62"/>
-    </row>
-    <row r="320" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="62"/>
       <c r="B320" s="63"/>
       <c r="C320" s="64" t="s">
-        <v>1762</v>
+        <v>1759</v>
       </c>
       <c r="D320" s="62" t="s">
         <v>242</v>
       </c>
-      <c r="E320" s="62"/>
-    </row>
-    <row r="321" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="321" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="62"/>
       <c r="B321" s="61" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
       <c r="C321" s="7" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
       <c r="D321" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="E321" s="62"/>
-    </row>
-    <row r="322" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="322" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="62"/>
       <c r="B322" s="61"/>
       <c r="C322" s="7" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
       <c r="D322" s="62" t="s">
         <v>263</v>
       </c>
-      <c r="E322" s="62" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="323" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="62"/>
       <c r="B323" s="61"/>
       <c r="C323" s="7" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
       <c r="D323" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="E323" s="62"/>
-    </row>
-    <row r="324" customFormat="false" ht="101.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="324" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="62"/>
       <c r="B324" s="61" t="s">
-        <v>1767</v>
+        <v>1764</v>
       </c>
       <c r="C324" s="7" t="s">
-        <v>1768</v>
+        <v>1765</v>
       </c>
       <c r="D324" s="62" t="s">
         <v>239</v>
       </c>
-      <c r="E324" s="62"/>
-    </row>
-    <row r="325" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="325" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="62"/>
       <c r="B325" s="63"/>
       <c r="C325" s="7" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
       <c r="D325" s="62" t="s">
         <v>263</v>
       </c>
-      <c r="E325" s="62" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="326" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="62"/>
       <c r="B326" s="63"/>
       <c r="C326" s="7" t="s">
-        <v>1770</v>
+        <v>1767</v>
       </c>
       <c r="D326" s="62" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E326" s="62"/>
-    </row>
-    <row r="327" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="62"/>
       <c r="B327" s="63" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
       <c r="C327" s="7" t="s">
-        <v>1772</v>
+        <v>1769</v>
       </c>
       <c r="D327" s="62" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E327" s="62"/>
-    </row>
-    <row r="328" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="62"/>
       <c r="B328" s="63"/>
       <c r="C328" s="7" t="s">
-        <v>1773</v>
+        <v>1770</v>
       </c>
       <c r="D328" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="E328" s="62"/>
-    </row>
-    <row r="329" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="62"/>
       <c r="B329" s="63"/>
       <c r="C329" s="7" t="s">
-        <v>1774</v>
+        <v>1771</v>
       </c>
       <c r="D329" s="62" t="s">
         <v>239</v>
       </c>
-      <c r="E329" s="62"/>
-    </row>
-    <row r="330" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="330" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="62"/>
       <c r="B330" s="61" t="s">
-        <v>1775</v>
+        <v>1772</v>
       </c>
       <c r="C330" s="64" t="s">
-        <v>1776</v>
+        <v>1773</v>
       </c>
       <c r="D330" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="E330" s="62"/>
-    </row>
-    <row r="331" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="331" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="62"/>
       <c r="B331" s="61"/>
       <c r="C331" s="64" t="s">
-        <v>1777</v>
+        <v>1774</v>
       </c>
       <c r="D331" s="62" t="s">
         <v>390</v>
       </c>
-      <c r="E331" s="62"/>
-    </row>
-    <row r="332" customFormat="false" ht="130.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="332" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="62"/>
       <c r="B332" s="61" t="s">
-        <v>1778</v>
+        <v>1775</v>
       </c>
       <c r="C332" s="7" t="s">
-        <v>1779</v>
+        <v>1776</v>
       </c>
       <c r="D332" s="62" t="s">
         <v>239</v>
       </c>
-      <c r="E332" s="62"/>
-    </row>
-    <row r="333" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="333" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="62"/>
       <c r="B333" s="63"/>
       <c r="C333" s="7" t="s">
-        <v>1780</v>
+        <v>1777</v>
       </c>
       <c r="D333" s="62" t="s">
-        <v>1382</v>
-      </c>
-      <c r="E333" s="62"/>
-    </row>
-    <row r="334" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="62"/>
       <c r="B334" s="63"/>
       <c r="C334" s="7" t="s">
-        <v>1781</v>
+        <v>1778</v>
       </c>
       <c r="D334" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="E334" s="62"/>
-    </row>
-    <row r="335" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="335" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="62"/>
       <c r="B335" s="63"/>
       <c r="C335" s="7" t="s">
-        <v>1782</v>
+        <v>1779</v>
       </c>
       <c r="D335" s="7" t="s">
-        <v>1625</v>
-      </c>
-      <c r="E335" s="62" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="336" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="62"/>
       <c r="B336" s="63"/>
       <c r="C336" s="7" t="s">
-        <v>1783</v>
+        <v>1780</v>
       </c>
       <c r="D336" s="62" t="s">
-        <v>1408</v>
-      </c>
-      <c r="E336" s="62"/>
-    </row>
-    <row r="337" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="62"/>
       <c r="B337" s="61" t="s">
-        <v>1784</v>
+        <v>1781</v>
       </c>
       <c r="C337" s="7" t="s">
-        <v>1785</v>
+        <v>1782</v>
       </c>
       <c r="D337" s="62" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E337" s="62"/>
-    </row>
-    <row r="338" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="62"/>
       <c r="B338" s="63"/>
       <c r="C338" s="7" t="s">
-        <v>1786</v>
+        <v>1783</v>
       </c>
       <c r="D338" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="E338" s="62"/>
-    </row>
-    <row r="339" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="62"/>
       <c r="B339" s="63"/>
       <c r="C339" s="62" t="s">
-        <v>1787</v>
+        <v>1784</v>
       </c>
       <c r="D339" s="62" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E339" s="62"/>
-    </row>
-    <row r="340" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="62"/>
       <c r="B340" s="61" t="s">
-        <v>1788</v>
+        <v>1785</v>
       </c>
       <c r="C340" s="7" t="s">
-        <v>1789</v>
+        <v>1786</v>
       </c>
       <c r="D340" s="62" t="s">
         <v>239</v>
       </c>
-      <c r="E340" s="62"/>
-    </row>
-    <row r="341" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="62"/>
       <c r="B341" s="61"/>
       <c r="C341" s="7" t="s">
-        <v>1790</v>
+        <v>1787</v>
       </c>
       <c r="D341" s="62" t="s">
-        <v>1408</v>
-      </c>
-      <c r="E341" s="62"/>
-    </row>
-    <row r="342" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="62"/>
       <c r="B342" s="61"/>
       <c r="C342" s="7" t="s">
-        <v>1791</v>
+        <v>1788</v>
       </c>
       <c r="D342" s="62" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E342" s="62"/>
-    </row>
-    <row r="343" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="62"/>
       <c r="B343" s="63"/>
       <c r="C343" s="7" t="s">
-        <v>1792</v>
+        <v>1789</v>
       </c>
       <c r="D343" s="62" t="s">
-        <v>1435</v>
-      </c>
-      <c r="E343" s="62"/>
-    </row>
-    <row r="344" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="62"/>
       <c r="B344" s="61" t="s">
-        <v>1793</v>
+        <v>1790</v>
       </c>
       <c r="C344" s="7" t="s">
-        <v>1794</v>
+        <v>1791</v>
       </c>
       <c r="D344" s="62" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E344" s="62"/>
-    </row>
-    <row r="345" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="62"/>
       <c r="B345" s="63"/>
       <c r="C345" s="64" t="s">
-        <v>1795</v>
+        <v>1792</v>
       </c>
       <c r="D345" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="E345" s="62" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="346" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="62"/>
       <c r="B346" s="63"/>
       <c r="C346" s="62" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
       <c r="D346" s="62" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E346" s="62"/>
-    </row>
-    <row r="347" customFormat="false" ht="130.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="62"/>
       <c r="B347" s="61" t="s">
-        <v>1796</v>
+        <v>1793</v>
       </c>
       <c r="C347" s="7" t="s">
-        <v>1797</v>
+        <v>1794</v>
       </c>
       <c r="D347" s="62" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E347" s="62"/>
-    </row>
-    <row r="348" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="62"/>
       <c r="B348" s="63"/>
       <c r="C348" s="62" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="D348" s="7" t="s">
-        <v>1625</v>
-      </c>
-      <c r="E348" s="62" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="349" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="62"/>
       <c r="B349" s="63"/>
       <c r="C349" s="62" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="D349" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="E349" s="62" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="350" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="62"/>
       <c r="B350" s="63"/>
       <c r="C350" s="62" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="D350" s="7" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E350" s="62"/>
-    </row>
-    <row r="351" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="62"/>
       <c r="B351" s="61" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="C351" s="7" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="D351" s="62" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E351" s="62"/>
-    </row>
-    <row r="352" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="62"/>
       <c r="B352" s="63"/>
       <c r="C352" s="7" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="D352" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="E352" s="62"/>
-    </row>
-    <row r="353" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="62"/>
       <c r="B353" s="63"/>
       <c r="C353" s="64" t="s">
-        <v>1804</v>
+        <v>1801</v>
       </c>
       <c r="D353" s="62" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E353" s="62"/>
-    </row>
-    <row r="354" customFormat="false" ht="188.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="62"/>
       <c r="B354" s="61" t="s">
-        <v>1805</v>
+        <v>1802</v>
       </c>
       <c r="C354" s="7" t="s">
-        <v>1806</v>
+        <v>1803</v>
       </c>
       <c r="D354" s="62" t="s">
         <v>239</v>
       </c>
-      <c r="E354" s="62"/>
-    </row>
-    <row r="355" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="355" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="62"/>
       <c r="B355" s="63"/>
       <c r="C355" s="7" t="s">
-        <v>1807</v>
+        <v>1804</v>
       </c>
       <c r="D355" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="E355" s="62"/>
-    </row>
-    <row r="356" customFormat="false" ht="116" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="356" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="62"/>
       <c r="B356" s="61" t="s">
-        <v>1808</v>
+        <v>1805</v>
       </c>
       <c r="C356" s="7" t="s">
-        <v>1809</v>
+        <v>1806</v>
       </c>
       <c r="D356" s="62" t="s">
         <v>239</v>
       </c>
-      <c r="E356" s="62"/>
-    </row>
-    <row r="357" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="357" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="62"/>
       <c r="B357" s="61"/>
       <c r="C357" s="7" t="s">
-        <v>1810</v>
+        <v>1807</v>
       </c>
       <c r="D357" s="62" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E357" s="62"/>
-    </row>
-    <row r="358" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="62"/>
       <c r="B358" s="61"/>
       <c r="C358" s="7" t="s">
-        <v>1811</v>
+        <v>1808</v>
       </c>
       <c r="D358" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="E358" s="62"/>
-    </row>
-    <row r="359" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="359" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="62"/>
       <c r="B359" s="63"/>
       <c r="C359" s="7" t="s">
-        <v>1812</v>
+        <v>1809</v>
       </c>
       <c r="D359" s="62" t="s">
         <v>551</v>
       </c>
-      <c r="E359" s="62" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="360" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="62"/>
       <c r="B360" s="63"/>
       <c r="C360" s="7" t="s">
-        <v>1813</v>
+        <v>1810</v>
       </c>
       <c r="D360" s="62" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E360" s="62"/>
-    </row>
-    <row r="361" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="62"/>
       <c r="B361" s="61" t="s">
-        <v>1814</v>
+        <v>1811</v>
       </c>
       <c r="C361" s="7" t="s">
-        <v>1815</v>
+        <v>1812</v>
       </c>
       <c r="D361" s="62" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E361" s="62"/>
-    </row>
-    <row r="362" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="62"/>
       <c r="B362" s="61"/>
       <c r="C362" s="7" t="s">
-        <v>1816</v>
+        <v>1813</v>
       </c>
       <c r="D362" s="62" t="s">
-        <v>1404</v>
-      </c>
-      <c r="E362" s="62" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="363" customFormat="false" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="62"/>
       <c r="B363" s="61" t="s">
-        <v>1817</v>
+        <v>1814</v>
       </c>
       <c r="C363" s="62" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="D363" s="62" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E363" s="62"/>
-    </row>
-    <row r="364" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="62"/>
       <c r="B364" s="62"/>
       <c r="C364" s="7" t="s">
-        <v>1819</v>
+        <v>1816</v>
       </c>
       <c r="D364" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="E364" s="62"/>
-    </row>
-    <row r="365" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="62"/>
       <c r="B365" s="62"/>
       <c r="C365" s="7" t="s">
-        <v>1820</v>
+        <v>1817</v>
       </c>
       <c r="D365" s="62" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E365" s="62"/>
-    </row>
-    <row r="366" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="62"/>
       <c r="B366" s="62"/>
       <c r="C366" s="7" t="s">
-        <v>1821</v>
+        <v>1818</v>
       </c>
       <c r="D366" s="62" t="s">
         <v>390</v>
       </c>
-      <c r="E366" s="62"/>
-    </row>
-    <row r="367" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="367" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="62"/>
       <c r="B367" s="62"/>
       <c r="C367" s="7" t="s">
-        <v>1822</v>
+        <v>1819</v>
       </c>
       <c r="D367" s="62" t="s">
         <v>239</v>
       </c>
-      <c r="E367" s="62"/>
-    </row>
-    <row r="368" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="368" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="62"/>
       <c r="B368" s="62"/>
       <c r="C368" s="7" t="s">
-        <v>1823</v>
+        <v>1820</v>
       </c>
       <c r="D368" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="E368" s="62"/>
-    </row>
-    <row r="369" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="62"/>
       <c r="B369" s="62"/>
       <c r="C369" s="7" t="s">
-        <v>1824</v>
+        <v>1821</v>
       </c>
       <c r="D369" s="62" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E369" s="62"/>
-    </row>
-    <row r="370" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="62"/>
       <c r="B370" s="62"/>
       <c r="C370" s="62" t="s">
-        <v>1825</v>
+        <v>1822</v>
       </c>
       <c r="D370" s="62" t="s">
-        <v>1408</v>
-      </c>
-      <c r="E370" s="62"/>
-    </row>
-    <row r="371" customFormat="false" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="12" t="s">
-        <v>1826</v>
+        <v>1823</v>
       </c>
       <c r="B371" s="67" t="s">
-        <v>1827</v>
+        <v>1824</v>
       </c>
       <c r="C371" s="12" t="s">
-        <v>1827</v>
+        <v>1824</v>
       </c>
       <c r="D371" s="12" t="s">
-        <v>1408</v>
-      </c>
-      <c r="E371" s="68"/>
-    </row>
-    <row r="372" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="68"/>
       <c r="B372" s="69" t="s">
-        <v>1828</v>
+        <v>1825</v>
       </c>
       <c r="C372" s="70" t="s">
-        <v>1828</v>
+        <v>1825</v>
       </c>
       <c r="D372" s="12" t="s">
-        <v>1408</v>
-      </c>
-      <c r="E372" s="68"/>
-    </row>
-    <row r="373" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="68"/>
       <c r="B373" s="67" t="s">
-        <v>1829</v>
+        <v>1826</v>
       </c>
       <c r="C373" s="12" t="s">
-        <v>1830</v>
+        <v>1827</v>
       </c>
       <c r="D373" s="68" t="s">
         <v>239</v>
       </c>
-      <c r="E373" s="68"/>
-    </row>
-    <row r="374" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="374" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="68"/>
       <c r="B374" s="67"/>
       <c r="C374" s="12" t="s">
-        <v>1831</v>
+        <v>1828</v>
       </c>
       <c r="D374" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E374" s="68"/>
-    </row>
-    <row r="375" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="375" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="68"/>
       <c r="B375" s="67"/>
       <c r="C375" s="12" t="s">
-        <v>1832</v>
+        <v>1829</v>
       </c>
       <c r="D375" s="68" t="s">
         <v>242</v>
       </c>
-      <c r="E375" s="68"/>
-    </row>
-    <row r="376" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="68"/>
       <c r="B376" s="67"/>
       <c r="C376" s="12" t="s">
-        <v>1833</v>
+        <v>1830</v>
       </c>
       <c r="D376" s="68" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E376" s="68"/>
-    </row>
-    <row r="377" customFormat="false" ht="203" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="68"/>
       <c r="B377" s="67" t="s">
-        <v>1834</v>
+        <v>1831</v>
       </c>
       <c r="C377" s="12" t="s">
-        <v>1835</v>
+        <v>1832</v>
       </c>
       <c r="D377" s="68" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E377" s="68"/>
-    </row>
-    <row r="378" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="68"/>
       <c r="B378" s="69"/>
       <c r="C378" s="12" t="s">
-        <v>1836</v>
+        <v>1833</v>
       </c>
       <c r="D378" s="68" t="s">
         <v>239</v>
       </c>
-      <c r="E378" s="68"/>
-    </row>
-    <row r="379" customFormat="false" ht="101.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="379" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="68"/>
       <c r="B379" s="69"/>
       <c r="C379" s="12" t="s">
-        <v>1837</v>
+        <v>1834</v>
       </c>
       <c r="D379" s="68" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E379" s="68"/>
-    </row>
-    <row r="380" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="68"/>
       <c r="B380" s="69" t="s">
-        <v>1838</v>
+        <v>1835</v>
       </c>
       <c r="C380" s="12" t="s">
-        <v>1839</v>
+        <v>1836</v>
       </c>
       <c r="D380" s="68" t="s">
         <v>239</v>
       </c>
-      <c r="E380" s="68"/>
-    </row>
-    <row r="381" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="381" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="68"/>
       <c r="B381" s="69"/>
       <c r="C381" s="12" t="s">
-        <v>1840</v>
+        <v>1837</v>
       </c>
       <c r="D381" s="68" t="s">
         <v>263</v>
       </c>
-      <c r="E381" s="68" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="382" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="382" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="68"/>
       <c r="B382" s="69"/>
       <c r="C382" s="12" t="s">
-        <v>1841</v>
+        <v>1838</v>
       </c>
       <c r="D382" s="68" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E382" s="68"/>
-    </row>
-    <row r="383" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="68"/>
       <c r="B383" s="67" t="s">
-        <v>1842</v>
+        <v>1839</v>
       </c>
       <c r="C383" s="12" t="s">
-        <v>1843</v>
+        <v>1840</v>
       </c>
       <c r="D383" s="68" t="s">
         <v>239</v>
       </c>
-      <c r="E383" s="68"/>
-    </row>
-    <row r="384" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="384" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="68"/>
       <c r="B384" s="67"/>
       <c r="C384" s="12" t="s">
-        <v>1844</v>
+        <v>1841</v>
       </c>
       <c r="D384" s="12" t="s">
         <v>466</v>
       </c>
-      <c r="E384" s="68"/>
-    </row>
-    <row r="385" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="68"/>
       <c r="B385" s="67" t="s">
-        <v>1845</v>
+        <v>1842</v>
       </c>
       <c r="C385" s="70" t="s">
-        <v>1845</v>
+        <v>1842</v>
       </c>
       <c r="D385" s="12" t="s">
-        <v>1408</v>
-      </c>
-      <c r="E385" s="68"/>
-    </row>
-    <row r="386" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="68"/>
       <c r="B386" s="69" t="s">
-        <v>1846</v>
+        <v>1843</v>
       </c>
       <c r="C386" s="12" t="s">
-        <v>1846</v>
+        <v>1843</v>
       </c>
       <c r="D386" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="E386" s="68"/>
-    </row>
-    <row r="387" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="387" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="68"/>
       <c r="B387" s="67" t="s">
-        <v>1847</v>
+        <v>1844</v>
       </c>
       <c r="C387" s="12" t="s">
-        <v>1848</v>
+        <v>1845</v>
       </c>
       <c r="D387" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="E387" s="68"/>
-    </row>
-    <row r="388" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="68"/>
       <c r="B388" s="69"/>
       <c r="C388" s="12" t="s">
-        <v>1849</v>
+        <v>1846</v>
       </c>
       <c r="D388" s="12" t="s">
-        <v>1408</v>
-      </c>
-      <c r="E388" s="68"/>
-    </row>
-    <row r="389" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="389" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="68"/>
       <c r="B389" s="67" t="s">
-        <v>1850</v>
+        <v>1847</v>
       </c>
       <c r="C389" s="12" t="s">
-        <v>1851</v>
+        <v>1848</v>
       </c>
       <c r="D389" s="68" t="s">
         <v>239</v>
       </c>
-      <c r="E389" s="68"/>
-    </row>
-    <row r="390" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="68"/>
       <c r="B390" s="69"/>
       <c r="C390" s="12" t="s">
-        <v>1852</v>
+        <v>1849</v>
       </c>
       <c r="D390" s="68" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E390" s="68"/>
-    </row>
-    <row r="391" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="68"/>
       <c r="B391" s="69" t="s">
-        <v>1853</v>
+        <v>1850</v>
       </c>
       <c r="C391" s="12" t="s">
-        <v>1854</v>
+        <v>1851</v>
       </c>
       <c r="D391" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="E391" s="68"/>
-    </row>
-    <row r="392" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="392" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="68"/>
       <c r="B392" s="69"/>
       <c r="C392" s="12" t="s">
-        <v>1855</v>
+        <v>1852</v>
       </c>
       <c r="D392" s="12" t="s">
-        <v>1408</v>
-      </c>
-      <c r="E392" s="68"/>
-    </row>
-    <row r="393" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="68"/>
       <c r="B393" s="69"/>
       <c r="C393" s="70" t="s">
-        <v>1856</v>
+        <v>1853</v>
       </c>
       <c r="D393" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="E393" s="68"/>
-    </row>
-    <row r="394" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="68"/>
       <c r="B394" s="67" t="s">
-        <v>1857</v>
+        <v>1854</v>
       </c>
       <c r="C394" s="70" t="s">
-        <v>1857</v>
+        <v>1854</v>
       </c>
       <c r="D394" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="E394" s="68"/>
-    </row>
-    <row r="395" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="395" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="68"/>
       <c r="B395" s="67" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
       <c r="C395" s="12" t="s">
-        <v>1859</v>
+        <v>1856</v>
       </c>
       <c r="D395" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="E395" s="68"/>
-    </row>
-    <row r="396" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="68"/>
       <c r="B396" s="69"/>
       <c r="C396" s="12" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="D396" s="68" t="s">
         <v>242</v>
       </c>
-      <c r="E396" s="68"/>
-    </row>
-    <row r="397" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="68"/>
       <c r="B397" s="69"/>
       <c r="C397" s="70" t="s">
-        <v>1861</v>
+        <v>1858</v>
       </c>
       <c r="D397" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="E397" s="68"/>
-    </row>
-    <row r="398" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="398" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="68"/>
       <c r="B398" s="69" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="C398" s="12" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="D398" s="68" t="s">
         <v>551</v>
       </c>
-      <c r="E398" s="68" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="399" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="399" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="68"/>
       <c r="B399" s="67" t="s">
-        <v>1863</v>
+        <v>1860</v>
       </c>
       <c r="C399" s="70" t="s">
-        <v>1864</v>
+        <v>1861</v>
       </c>
       <c r="D399" s="68" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E399" s="68"/>
-    </row>
-    <row r="400" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="400" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="68"/>
       <c r="B400" s="67"/>
       <c r="C400" s="70" t="s">
-        <v>1865</v>
+        <v>1862</v>
       </c>
       <c r="D400" s="12" t="s">
-        <v>1408</v>
-      </c>
-      <c r="E400" s="68"/>
-    </row>
-    <row r="401" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="401" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="68"/>
       <c r="B401" s="67" t="s">
-        <v>1866</v>
+        <v>1863</v>
       </c>
       <c r="C401" s="12" t="s">
-        <v>1866</v>
+        <v>1863</v>
       </c>
       <c r="D401" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="E401" s="68"/>
-    </row>
-    <row r="402" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="402" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="68"/>
       <c r="B402" s="67" t="s">
-        <v>1867</v>
+        <v>1864</v>
       </c>
       <c r="C402" s="70" t="s">
-        <v>1867</v>
+        <v>1864</v>
       </c>
       <c r="D402" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="E402" s="68"/>
-    </row>
-    <row r="403" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="403" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="68"/>
       <c r="B403" s="67" t="s">
-        <v>1868</v>
+        <v>1865</v>
       </c>
       <c r="C403" s="12" t="s">
-        <v>1869</v>
+        <v>1866</v>
       </c>
       <c r="D403" s="68" t="s">
         <v>239</v>
       </c>
-      <c r="E403" s="68"/>
-    </row>
-    <row r="404" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="68"/>
       <c r="B404" s="69"/>
       <c r="C404" s="12" t="s">
-        <v>1870</v>
+        <v>1867</v>
       </c>
       <c r="D404" s="68" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E404" s="68"/>
-    </row>
-    <row r="405" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="68"/>
       <c r="B405" s="69"/>
       <c r="C405" s="12" t="s">
-        <v>1871</v>
+        <v>1868</v>
       </c>
       <c r="D405" s="68" t="s">
-        <v>1408</v>
-      </c>
-      <c r="E405" s="68"/>
-    </row>
-    <row r="406" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="68"/>
       <c r="B406" s="69"/>
       <c r="C406" s="70" t="s">
-        <v>1872</v>
+        <v>1869</v>
       </c>
       <c r="D406" s="68" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E406" s="68"/>
-    </row>
-    <row r="407" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="407" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="68"/>
       <c r="B407" s="69" t="s">
-        <v>1873</v>
+        <v>1870</v>
       </c>
       <c r="C407" s="12" t="s">
-        <v>1874</v>
+        <v>1871</v>
       </c>
       <c r="D407" s="68" t="s">
         <v>239</v>
       </c>
-      <c r="E407" s="68"/>
-    </row>
-    <row r="408" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="68"/>
       <c r="B408" s="69"/>
       <c r="C408" s="12" t="s">
-        <v>1875</v>
+        <v>1872</v>
       </c>
       <c r="D408" s="68" t="s">
         <v>270</v>
       </c>
-      <c r="E408" s="68" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="409" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="68"/>
       <c r="B409" s="69" t="s">
-        <v>1876</v>
+        <v>1873</v>
       </c>
       <c r="C409" s="12" t="s">
-        <v>1877</v>
+        <v>1874</v>
       </c>
       <c r="D409" s="68" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E409" s="68"/>
-    </row>
-    <row r="410" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="410" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="68"/>
       <c r="B410" s="69"/>
       <c r="C410" s="12" t="s">
-        <v>1878</v>
+        <v>1875</v>
       </c>
       <c r="D410" s="68" t="s">
         <v>239</v>
       </c>
-      <c r="E410" s="68"/>
-    </row>
-    <row r="411" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="411" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="68"/>
       <c r="B411" s="69"/>
       <c r="C411" s="12" t="s">
-        <v>1879</v>
+        <v>1876</v>
       </c>
       <c r="D411" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="E411" s="68"/>
-    </row>
-    <row r="412" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="412" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="68"/>
       <c r="B412" s="67" t="s">
-        <v>1880</v>
+        <v>1877</v>
       </c>
       <c r="C412" s="12" t="s">
-        <v>1880</v>
+        <v>1877</v>
       </c>
       <c r="D412" s="68" t="s">
         <v>239</v>
       </c>
-      <c r="E412" s="68"/>
-    </row>
-    <row r="413" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="413" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="68"/>
       <c r="B413" s="67" t="s">
-        <v>1881</v>
+        <v>1878</v>
       </c>
       <c r="C413" s="70" t="s">
-        <v>1881</v>
+        <v>1878</v>
       </c>
       <c r="D413" s="68" t="s">
         <v>239</v>
       </c>
-      <c r="E413" s="68"/>
-    </row>
-    <row r="414" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="414" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="68"/>
       <c r="B414" s="67" t="s">
-        <v>1882</v>
+        <v>1879</v>
       </c>
       <c r="C414" s="12" t="s">
-        <v>1883</v>
+        <v>1880</v>
       </c>
       <c r="D414" s="68" t="s">
         <v>239</v>
       </c>
-      <c r="E414" s="68"/>
-    </row>
-    <row r="415" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="68"/>
       <c r="B415" s="67"/>
       <c r="C415" s="12" t="s">
-        <v>1884</v>
+        <v>1881</v>
       </c>
       <c r="D415" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="E415" s="68"/>
-    </row>
-    <row r="416" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="416" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="68"/>
       <c r="B416" s="67" t="s">
-        <v>1885</v>
+        <v>1882</v>
       </c>
       <c r="C416" s="12" t="s">
-        <v>1885</v>
+        <v>1882</v>
       </c>
       <c r="D416" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="E416" s="68"/>
-    </row>
-    <row r="417" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="417" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="68"/>
       <c r="B417" s="69" t="s">
-        <v>1886</v>
+        <v>1883</v>
       </c>
       <c r="C417" s="12" t="s">
-        <v>1886</v>
+        <v>1883</v>
       </c>
       <c r="D417" s="68" t="s">
-        <v>1408</v>
-      </c>
-      <c r="E417" s="68"/>
-    </row>
-    <row r="418" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="418" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="68"/>
       <c r="B418" s="67" t="s">
-        <v>1887</v>
+        <v>1884</v>
       </c>
       <c r="C418" s="12" t="s">
-        <v>1888</v>
+        <v>1885</v>
       </c>
       <c r="D418" s="68" t="s">
-        <v>1408</v>
-      </c>
-      <c r="E418" s="68"/>
-    </row>
-    <row r="419" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="419" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="68"/>
       <c r="B419" s="69"/>
       <c r="C419" s="12" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="D419" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E419" s="68"/>
-    </row>
-    <row r="420" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="420" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="68"/>
       <c r="B420" s="67" t="s">
-        <v>1890</v>
+        <v>1887</v>
       </c>
       <c r="C420" s="12" t="s">
-        <v>1890</v>
+        <v>1887</v>
       </c>
       <c r="D420" s="68" t="s">
         <v>427</v>
       </c>
-      <c r="E420" s="68"/>
-    </row>
-    <row r="421" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="421" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="68"/>
       <c r="B421" s="71" t="s">
-        <v>1891</v>
+        <v>1888</v>
       </c>
       <c r="C421" s="72" t="s">
-        <v>1892</v>
+        <v>1889</v>
       </c>
       <c r="D421" s="68" t="s">
-        <v>1408</v>
-      </c>
-      <c r="E421" s="68"/>
-    </row>
-    <row r="422" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="422" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="68"/>
       <c r="B422" s="67" t="s">
-        <v>1893</v>
+        <v>1890</v>
       </c>
       <c r="C422" s="12" t="s">
-        <v>1894</v>
+        <v>1891</v>
       </c>
       <c r="D422" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="E422" s="12"/>
-    </row>
-    <row r="423" customFormat="false" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="423" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="68"/>
       <c r="B423" s="69"/>
       <c r="C423" s="12" t="s">
-        <v>1895</v>
+        <v>1892</v>
       </c>
       <c r="D423" s="68" t="s">
-        <v>1408</v>
-      </c>
-      <c r="E423" s="68"/>
-    </row>
-    <row r="424" customFormat="false" ht="101.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="424" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="68"/>
       <c r="B424" s="67" t="s">
-        <v>1896</v>
+        <v>1893</v>
       </c>
       <c r="C424" s="12" t="s">
-        <v>1897</v>
+        <v>1894</v>
       </c>
       <c r="D424" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E424" s="68"/>
-    </row>
-    <row r="425" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="425" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="68"/>
       <c r="B425" s="68"/>
       <c r="C425" s="70" t="s">
-        <v>1898</v>
+        <v>1895</v>
       </c>
       <c r="D425" s="68" t="s">
         <v>390</v>
       </c>
-      <c r="E425" s="68"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
